--- a/DL/group_2.xlsx
+++ b/DL/group_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luxau\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE974A3-DE89-4D59-8493-5B1F2F50FF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2E40F-B82A-4733-AA04-9FEF69661C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stata_sys" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Sys #1</t>
   </si>
@@ -35,67 +35,70 @@
     <t>Diff #2</t>
   </si>
   <si>
+    <t>lambda</t>
+  </si>
+  <si>
     <t>gend</t>
   </si>
   <si>
+    <t>fat_s</t>
+  </si>
+  <si>
+    <t>sugar_s</t>
+  </si>
+  <si>
+    <t>sodium_s</t>
+  </si>
+  <si>
+    <t>c.sodium_s#c.gend</t>
+  </si>
+  <si>
+    <t>iron_s</t>
+  </si>
+  <si>
+    <t>alcohol_s</t>
+  </si>
+  <si>
+    <t>c.alcohol_s#c.gend</t>
+  </si>
+  <si>
+    <t>caff_s</t>
+  </si>
+  <si>
+    <t>c.caff#c.gend</t>
+  </si>
+  <si>
+    <t>water_s</t>
+  </si>
+  <si>
+    <t>_cons</t>
+  </si>
+  <si>
     <t>c.fat_s#c.gend</t>
   </si>
   <si>
-    <t>sugar_s</t>
-  </si>
-  <si>
     <t>c.sugar_s#c.gend</t>
   </si>
   <si>
     <t>protein_s</t>
   </si>
   <si>
-    <t>fiber_s</t>
+    <t>c.protein_s#c.gend</t>
+  </si>
+  <si>
+    <t>fiber_S</t>
   </si>
   <si>
     <t>c.fiber_s#c.gend</t>
   </si>
   <si>
-    <t>sodium_s</t>
-  </si>
-  <si>
     <t>c.iron_s#c.gend</t>
   </si>
   <si>
-    <t>alcohol_s</t>
-  </si>
-  <si>
-    <t>c.alcohol_s#c.gend</t>
-  </si>
-  <si>
-    <t>caff_s</t>
-  </si>
-  <si>
     <t>c.caff_s#c.gend</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>c.water_s#c.gend</t>
-  </si>
-  <si>
-    <t>_cons</t>
-  </si>
-  <si>
-    <t>lambda</t>
-  </si>
-  <si>
-    <t>fat_s</t>
-  </si>
-  <si>
-    <t>c.sodium_s#c.gend</t>
-  </si>
-  <si>
-    <t>iron_s</t>
-  </si>
-  <si>
-    <t>water_s</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -462,184 +465,145 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>9.0569326676395903E-2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>8.164886024257817E-2</v>
       </c>
       <c r="D2">
-        <v>9.040794933254169E-2</v>
+        <v>8.2356138612635646E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-2.1160052973524652E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+        <v>-6.8941600176796528E-3</v>
       </c>
       <c r="D3">
-        <v>-2.025566373802094E-2</v>
+        <v>-7.7049782245853637E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-5.4887419690360158E-2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>-5.7716079017640379E-2</v>
       </c>
       <c r="D4">
-        <v>-5.4630730957866962E-2</v>
+        <v>-5.8594727830780111E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1.6032191516338355E-2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>-1.3610795946134941E-2</v>
       </c>
       <c r="D5">
-        <v>1.4556670255281083E-2</v>
+        <v>-1.5571634992989952E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1.3843668184660646E-2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>9.501118205547842E-3</v>
       </c>
       <c r="D6">
-        <v>1.3157034909607842E-2</v>
+        <v>1.2174149050446899E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-4.7845533157446815E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
+        <v>-2.9788437364351297E-2</v>
       </c>
       <c r="D7">
-        <v>-4.6800552293613372E-2</v>
+        <v>-3.0598535044471489E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>6.1567174643664145E-2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+        <v>5.240120634896818E-2</v>
       </c>
       <c r="D8">
-        <v>6.1346199703477725E-2</v>
+        <v>5.3158770073761442E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>4.0077172568493476E-2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
+        <v>2.863024253929302E-2</v>
       </c>
       <c r="D9">
-        <v>3.9645194953752322E-2</v>
+        <v>3.0165790160124797E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.15716838300088568</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
+        <v>0.15160547850798775</v>
       </c>
       <c r="D10">
-        <v>0.15620872231075245</v>
+        <v>0.15463172185276791</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-3.3159717223447793E-2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
+        <v>-4.107803028635869E-3</v>
       </c>
       <c r="D11">
-        <v>-3.2253012540596704E-2</v>
+        <v>-7.1462957655316012E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>2.4173736224157544E-2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
+        <v>1.3606937532230003E-2</v>
       </c>
       <c r="D12">
-        <v>2.3871840969246359E-2</v>
+        <v>1.5437130305451151E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>5.2655999999999996E-3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>5.7790000000000003E-3</v>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1.09634E-2</v>
+      </c>
+      <c r="D14">
+        <v>9.1020000000000007E-3</v>
       </c>
     </row>
   </sheetData>
@@ -649,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -667,44 +631,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>8.7240226463625545E-2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>8.2231400306470706E-2</v>
       </c>
       <c r="D2">
-        <v>8.7568997334746712E-2</v>
+        <v>8.2520661067667186E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>2.1480581397155162E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>1.9107492295594126E-2</v>
       </c>
       <c r="D3">
-        <v>2.2416027317105198E-2</v>
+        <v>2.2237727386190159E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>-3.45240297590063E-2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>5.1528096291818995E-2</v>
       </c>
       <c r="D4">
-        <v>-3.4839044439804304E-2</v>
+        <v>5.2772378599104108E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -712,195 +667,197 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-1.3376776379342647E-3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>-5.096388555159774E-2</v>
       </c>
       <c r="D5">
-        <v>-2.0934004131909507E-3</v>
+        <v>-5.23256354887736E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>-4.8535332427050347E-2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>-1.9858708992942443E-2</v>
       </c>
       <c r="D6">
-        <v>-4.8845603631197491E-2</v>
+        <v>-2.0913533431598515E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>-2.1544790476272502E-3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>-2.8961573224274673E-2</v>
       </c>
       <c r="D7">
-        <v>-2.2592390891635829E-3</v>
+        <v>-2.9627308467923191E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>-9.885380674826829E-3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+        <v>-3.1813248407107836E-2</v>
       </c>
       <c r="D8">
-        <v>-1.0886267549366377E-2</v>
+        <v>-3.4582045382560982E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>-4.3732833393805064E-2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
+        <v>-1.364754006665689E-2</v>
       </c>
       <c r="D9">
-        <v>-4.3883911969865068E-2</v>
+        <v>-1.4930981993105302E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>2.3680164859224335E-3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
+        <v>-3.4882066162758817E-3</v>
       </c>
       <c r="D10">
-        <v>3.3282248297229877E-3</v>
+        <v>-4.5077494315170401E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>-3.8015102800658368E-2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>-9.06273733739036E-2</v>
       </c>
       <c r="D11">
-        <v>-3.9316658634504432E-2</v>
+        <v>-9.326688216899566E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>3.3390263319110075E-2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
+        <v>1.8765907757568027E-2</v>
       </c>
       <c r="D12">
-        <v>3.4604177980124294E-2</v>
+        <v>2.0875755056758424E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>3.2365096482868776E-2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+        <v>1.2594318515898106E-2</v>
       </c>
       <c r="D13">
-        <v>3.3189631311634993E-2</v>
+        <v>1.462067966857958E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-2.2438512496490183E-2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
+        <v>8.0604906339968446E-3</v>
       </c>
       <c r="D14">
-        <v>-2.3147802297833135E-2</v>
+        <v>9.4118202132218616E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>-7.1329008647514208E-2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+        <v>-4.9960047713912839E-2</v>
       </c>
       <c r="D15">
-        <v>-7.1648947150586353E-2</v>
+        <v>-5.1641739363399511E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>-1.8252910583795565E-2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
+        <v>4.102520293163562E-2</v>
       </c>
       <c r="D16">
-        <v>-1.8639059968880666E-2</v>
+        <v>4.2701036324364582E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
+        <v>3.5266473941178919E-2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3.627480292735729E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>-3.5995767808229551E-2</v>
+      </c>
+      <c r="D18">
+        <v>-3.6882401296290709E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>4.2910999999999999E-3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
+        <v>-8.3005938350776562E-2</v>
       </c>
       <c r="D19">
-        <v>3.90099E-3</v>
+        <v>-8.33317381828622E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>-4.0464780450813059E-2</v>
+      </c>
+      <c r="D20">
+        <v>-4.0863027369861291E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1.4867000000000001E-3</v>
+      </c>
+      <c r="D22">
+        <v>9.3369999999999998E-4</v>
       </c>
     </row>
   </sheetData>

--- a/DL/group_2.xlsx
+++ b/DL/group_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luxau\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2E40F-B82A-4733-AA04-9FEF69661C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2254E9-6CC6-449C-9140-DC89F3F44750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="370" windowWidth="8700" windowHeight="10430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stata_sys" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
   <si>
     <t>Sys #1</t>
   </si>
@@ -35,70 +35,55 @@
     <t>Diff #2</t>
   </si>
   <si>
+    <t>gend</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>fat#gend</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>sugar#gend</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>fiber</t>
+  </si>
+  <si>
+    <t>sodium</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>alcohol#gend</t>
+  </si>
+  <si>
+    <t>caff</t>
+  </si>
+  <si>
+    <t>caff#gend</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>water#gend</t>
+  </si>
+  <si>
     <t>lambda</t>
   </si>
   <si>
-    <t>gend</t>
-  </si>
-  <si>
-    <t>fat_s</t>
-  </si>
-  <si>
-    <t>sugar_s</t>
-  </si>
-  <si>
-    <t>sodium_s</t>
-  </si>
-  <si>
-    <t>c.sodium_s#c.gend</t>
-  </si>
-  <si>
-    <t>iron_s</t>
-  </si>
-  <si>
-    <t>alcohol_s</t>
-  </si>
-  <si>
-    <t>c.alcohol_s#c.gend</t>
-  </si>
-  <si>
-    <t>caff_s</t>
-  </si>
-  <si>
-    <t>c.caff#c.gend</t>
-  </si>
-  <si>
-    <t>water_s</t>
-  </si>
-  <si>
-    <t>_cons</t>
-  </si>
-  <si>
-    <t>c.fat_s#c.gend</t>
-  </si>
-  <si>
-    <t>c.sugar_s#c.gend</t>
-  </si>
-  <si>
-    <t>protein_s</t>
-  </si>
-  <si>
-    <t>c.protein_s#c.gend</t>
-  </si>
-  <si>
-    <t>fiber_S</t>
-  </si>
-  <si>
-    <t>c.fiber_s#c.gend</t>
-  </si>
-  <si>
-    <t>c.iron_s#c.gend</t>
-  </si>
-  <si>
-    <t>c.caff_s#c.gend</t>
-  </si>
-  <si>
-    <t>c.water_s#c.gend</t>
+    <t>sodium#gend</t>
   </si>
 </sst>
 </file>
@@ -447,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -465,24 +450,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>8.164886024257817E-2</v>
+        <v>8.4712367306680705E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>8.2356138612635646E-2</v>
+        <v>8.2388264074573822E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>-6.8941600176796528E-3</v>
+        <v>-1.3696424307512962E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>-7.7049782245853637E-3</v>
+        <v>-1.3312806665143418E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -490,54 +481,69 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-5.7716079017640379E-2</v>
+        <v>-6.4722648253935658E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-5.8594727830780111E-2</v>
+        <v>-6.5291609889562369E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>-1.3610795946134941E-2</v>
+        <v>-9.1718099553944714E-3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>-1.5571634992989952E-2</v>
+        <v>-7.2777884337377786E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>9.501118205547842E-3</v>
+        <v>2.4572295802134554E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1.2174149050446899E-2</v>
+        <v>2.4531399845098778E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-2.9788437364351297E-2</v>
+        <v>-1.9858437104110529E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.0598535044471489E-2</v>
+        <v>-1.8445713739188727E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>5.240120634896818E-2</v>
+        <v>1.3205859131519809E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>5.3158770073761442E-2</v>
+        <v>-4.3032371120472687E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -545,10 +551,13 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2.863024253929302E-2</v>
+        <v>-4.3367578399261746E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>3.0165790160124797E-2</v>
+        <v>8.2248984883071113E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -556,10 +565,13 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.15160547850798775</v>
+        <v>7.1229486112107984E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>0.15463172185276791</v>
+        <v>0.16383828568908251</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -567,10 +579,13 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-4.107803028635869E-3</v>
+        <v>1.7017576683876632E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>-7.1462957655316012E-3</v>
+        <v>2.2539517700990691E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -578,10 +593,13 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>1.3606937532230003E-2</v>
+        <v>0.16559387150310409</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>1.5437130305451151E-2</v>
+        <v>1.1266399999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -589,21 +607,23 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>-6.3288009517827332E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>1.09634E-2</v>
-      </c>
-      <c r="D14">
-        <v>9.1020000000000007E-3</v>
+        <v>2.2293885066877784E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>5.3524999999999996E-3</v>
       </c>
     </row>
   </sheetData>
@@ -613,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -631,35 +651,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>8.2231400306470706E-2</v>
+        <v>8.2303025326181459E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>8.2520661067667186E-2</v>
+        <v>8.2440711678146719E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1.9107492295594126E-2</v>
+        <v>3.3520938738926122E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2.2237727386190159E-2</v>
+        <v>3.3134838670752627E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>5.1528096291818995E-2</v>
+        <v>2.8764736476664908E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>5.2772378599104108E-2</v>
+        <v>3.0590294681649137E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -667,197 +696,181 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-5.096388555159774E-2</v>
+        <v>-5.960122213499295E-2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>-5.23256354887736E-2</v>
+        <v>-5.918187976493984E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>-1.9858708992942443E-2</v>
+        <v>-2.8057167522673818E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>-2.0913533431598515E-2</v>
+        <v>-4.4736998540319843E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>-2.8961573224274673E-2</v>
+        <v>-4.0187204684376844E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>-2.9627308467923191E-2</v>
+        <v>-4.0252004547352511E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>-3.1813248407107836E-2</v>
+        <v>-1.5768800861433896E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>-3.4582045382560982E-2</v>
+        <v>-1.5844407960149479E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>-1.364754006665689E-2</v>
+        <v>-9.4312718941476262E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>-1.4930981993105302E-2</v>
+        <v>-9.4210954734938263E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>-3.4882066162758817E-3</v>
+        <v>1.9831372763534021E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>-4.5077494315170401E-3</v>
+        <v>1.9866980291000577E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>-9.06273733739036E-2</v>
+        <v>-4.3159581672683467E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>-9.326688216899566E-2</v>
+        <v>-4.4239238172680329E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>1.8765907757568027E-2</v>
+        <v>2.7589512588089709E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>2.0875755056758424E-2</v>
+        <v>2.9152338145780214E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>1.2594318515898106E-2</v>
+        <v>3.4736819408719713E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>1.462067966857958E-2</v>
+        <v>3.5051782568025124E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>8.0604906339968446E-3</v>
+        <v>-2.72716434826718E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>9.4118202132218616E-3</v>
+        <v>-2.8359316827915215E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>-4.9960047713912839E-2</v>
+        <v>-8.4862642909182981E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>-5.1641739363399511E-2</v>
+        <v>-8.4734968699842622E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>4.102520293163562E-2</v>
+        <v>-3.1605381376181518E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>4.2701036324364582E-2</v>
+        <v>-3.27721482305827E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>3.5266473941178919E-2</v>
+        <v>4.5234999999999997E-3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>3.627480292735729E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>-3.5995767808229551E-2</v>
-      </c>
-      <c r="D18">
-        <v>-3.6882401296290709E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>-8.3005938350776562E-2</v>
-      </c>
-      <c r="D19">
-        <v>-8.33317381828622E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>-4.0464780450813059E-2</v>
-      </c>
-      <c r="D20">
-        <v>-4.0863027369861291E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>1.4867000000000001E-3</v>
-      </c>
-      <c r="D22">
-        <v>9.3369999999999998E-4</v>
+        <v>4.1216999999999998E-3</v>
       </c>
     </row>
   </sheetData>
